--- a/target/classes/Config/TestData.xlsx
+++ b/target/classes/Config/TestData.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://provanaindia-my.sharepoint.com/personal/abhishek_kumar_provana_com1/Documents/Ipacs_Automation/ipacsQA/src/main/resources/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_F25DC773A252ABDACC104891111D6FE65ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBF31336-F29F-41FA-B463-5EA68A24C06A}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="11_F25DC773A252ABDACC104891111D6FE65ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB731A17-0E62-47DD-A9CF-68696E0478D8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>Key</t>
   </si>
@@ -192,13 +203,19 @@
     <t>yes</t>
   </si>
   <si>
-    <t>user001</t>
-  </si>
-  <si>
-    <t>testuser001</t>
-  </si>
-  <si>
     <t>testuser001@test.com</t>
+  </si>
+  <si>
+    <t>Testuser</t>
+  </si>
+  <si>
+    <t>EditUserName</t>
+  </si>
+  <si>
+    <t>Ecm04_testuser</t>
+  </si>
+  <si>
+    <t>Ecm04</t>
   </si>
 </sst>
 </file>
@@ -532,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +776,7 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -767,7 +784,7 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -775,7 +792,7 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -783,7 +800,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -824,6 +841,14 @@
       </c>
       <c r="B40" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/Config/TestData.xlsx
+++ b/target/classes/Config/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://provanaindia-my.sharepoint.com/personal/abhishek_kumar_provana_com1/Documents/Ipacs_Automation/ipacsQA/src/main/resources/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_F25DC773A252ABDACC104891111D6FE65ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB731A17-0E62-47DD-A9CF-68696E0478D8}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="11_F25DC773A252ABDACC104891111D6FE65ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53C590DA-A04C-4F79-A4F4-376730D5A4B4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,19 +203,19 @@
     <t>yes</t>
   </si>
   <si>
-    <t>testuser001@test.com</t>
-  </si>
-  <si>
     <t>Testuser</t>
   </si>
   <si>
     <t>EditUserName</t>
   </si>
   <si>
-    <t>Ecm04_testuser</t>
-  </si>
-  <si>
-    <t>Ecm04</t>
+    <t>Ecm06</t>
+  </si>
+  <si>
+    <t>Ecm06_testuser</t>
+  </si>
+  <si>
+    <t>testuser006@test.com</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +776,7 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -784,7 +784,7 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -800,7 +800,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
         <v>58</v>
